--- a/circuit_board/altium_bom_template_dig_v2020.xlsx
+++ b/circuit_board/altium_bom_template_dig_v2020.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23223"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nando\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augusto.fraga\repos\rtm-lamp-hw\circuit_board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_4CB97A76634040A03323F9A2429B374FFC148C48" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CCF3E3-DB95-45DC-989B-C4D96352FB02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8208" yWindow="-14400" windowWidth="24000" windowHeight="13212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -71,9 +71,6 @@
     <t>Column=Part Number</t>
   </si>
   <si>
-    <t>Column=Part Description</t>
-  </si>
-  <si>
     <t>Column=Value</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   <si>
     <t>Column=Quantity</t>
   </si>
+  <si>
+    <t>Column=Description</t>
+  </si>
 </sst>
 </file>
 
@@ -123,7 +123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -171,6 +171,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -301,7 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -350,6 +357,7 @@
     <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Entrada" xfId="1" builtinId="20"/>
@@ -1494,10 +1502,10 @@
   <dimension ref="A1:R65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:I4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.28515625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -1519,7 +1527,7 @@
     <col min="18" max="18" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="12.75" customHeight="1">
+    <row r="1" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1541,7 +1549,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="2" spans="1:18" ht="57" customHeight="1">
+    <row r="2" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1561,7 +1569,7 @@
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
     </row>
-    <row r="3" spans="1:18" ht="24.6">
+    <row r="3" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
@@ -1583,7 +1591,7 @@
       <c r="Q3" s="17"/>
       <c r="R3" s="17"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
@@ -1619,8 +1627,8 @@
       </c>
       <c r="R4" s="19"/>
     </row>
-    <row r="5" spans="1:18" ht="7.5" customHeight="1"/>
-    <row r="6" spans="1:18" s="1" customFormat="1" ht="39" customHeight="1">
+    <row r="5" spans="1:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:18" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -1631,56 +1639,56 @@
         <v>12</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="J6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="K6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="L6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="M6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="N6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="O6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="P6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="Q6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="R6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="R6" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1696,7 +1704,7 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1716,7 +1724,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1736,7 +1744,7 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1756,7 +1764,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1776,7 +1784,7 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1796,7 +1804,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1816,7 +1824,7 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1836,7 +1844,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1856,7 +1864,7 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1876,7 +1884,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1896,7 +1904,7 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1916,7 +1924,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1936,7 +1944,7 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1956,7 +1964,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1976,7 +1984,7 @@
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1996,7 +2004,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2016,7 +2024,7 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -2036,7 +2044,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2056,7 +2064,7 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -2076,7 +2084,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2096,7 +2104,7 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -2116,7 +2124,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2136,7 +2144,7 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2156,7 +2164,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2176,7 +2184,7 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2196,7 +2204,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2216,7 +2224,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -2236,7 +2244,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2256,7 +2264,7 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2276,7 +2284,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2296,7 +2304,7 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -2316,7 +2324,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2336,7 +2344,7 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2356,7 +2364,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2376,7 +2384,7 @@
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2396,7 +2404,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2416,7 +2424,7 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -2436,7 +2444,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2456,7 +2464,7 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2476,7 +2484,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2496,7 +2504,7 @@
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2516,7 +2524,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2536,7 +2544,7 @@
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2556,7 +2564,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2576,7 +2584,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2596,7 +2604,7 @@
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2616,7 +2624,7 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2636,7 +2644,7 @@
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2656,7 +2664,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2676,7 +2684,7 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2696,7 +2704,7 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2716,7 +2724,7 @@
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2736,7 +2744,7 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="65" spans="3:3">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" s="6"/>
     </row>
   </sheetData>

--- a/circuit_board/altium_bom_template_dig_v2020.xlsx
+++ b/circuit_board/altium_bom_template_dig_v2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augusto.fraga\repos\rtm-lamp-hw\circuit_board\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augusto.fraga\repos\lnls\rtm-lamp-hw\circuit_board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CCF3E3-DB95-45DC-989B-C4D96352FB02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1105DAEA-97D3-4A1E-9B84-72F59C0D9631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>21/02/2020</t>
   </si>
   <si>
-    <t>Column=Fitted</t>
-  </si>
-  <si>
     <t>Column=Designator</t>
   </si>
   <si>
@@ -114,6 +111,9 @@
   </si>
   <si>
     <t>Column=Description</t>
+  </si>
+  <si>
+    <t>Column=Mounted</t>
   </si>
 </sst>
 </file>
@@ -330,6 +330,7 @@
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -357,7 +358,6 @@
     <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Entrada" xfId="1" builtinId="20"/>
@@ -1501,8 +1501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1550,65 +1550,65 @@
       <c r="R1" s="5"/>
     </row>
     <row r="2" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
     </row>
     <row r="3" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="14"/>
       <c r="J4" s="7" t="s">
         <v>6</v>
       </c>
@@ -1622,73 +1622,73 @@
       <c r="P4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="19"/>
+      <c r="R4" s="20"/>
     </row>
     <row r="5" spans="1:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:18" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="J6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="K6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="L6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="M6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="N6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="O6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="P6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="Q6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="R6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="R6" s="8" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="20"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>

--- a/circuit_board/altium_bom_template_dig_v2020.xlsx
+++ b/circuit_board/altium_bom_template_dig_v2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augusto.fraga\repos\lnls\rtm-lamp-hw\circuit_board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1105DAEA-97D3-4A1E-9B84-72F59C0D9631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542A767D-EC39-44E9-9B44-93B72A29AA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">   </t>
   </si>
@@ -56,12 +56,6 @@
     <t>Field=VariantName</t>
   </si>
   <si>
-    <t>Data:</t>
-  </si>
-  <si>
-    <t>21/02/2020</t>
-  </si>
-  <si>
     <t>Column=Designator</t>
   </si>
   <si>
@@ -114,6 +108,15 @@
   </si>
   <si>
     <t>Column=Mounted</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>Field=ReportDate</t>
   </si>
 </sst>
 </file>
@@ -211,7 +214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -303,12 +306,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -331,6 +343,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -349,13 +364,24 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -363,7 +389,617 @@
     <cellStyle name="Entrada" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="117">
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFC000"/>
@@ -916,12 +1552,12 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Estilo de Tabela 1" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de Tabela 1" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="55"/>
-      <tableStyleElement type="secondRowStripe" dxfId="54"/>
+      <tableStyleElement type="firstRowStripe" dxfId="116"/>
+      <tableStyleElement type="secondRowStripe" dxfId="115"/>
     </tableStyle>
     <tableStyle name="Estilo de Tabela 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="53"/>
-      <tableStyleElement type="secondRowStripe" dxfId="52"/>
+      <tableStyleElement type="firstRowStripe" dxfId="114"/>
+      <tableStyleElement type="secondRowStripe" dxfId="113"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1019,8 +1655,8 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>596900</xdr:rowOff>
     </xdr:to>
@@ -1146,7 +1782,7 @@
               <a:latin typeface="Arial"/>
               <a:cs typeface="Arial"/>
             </a:rPr>
-            <a:t>Grupo de diagnóstico do feixe - DIG - LNLS</a:t>
+            <a:t>Grupo de Controles Avançados - GCA - LNLS</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -1168,7 +1804,7 @@
               <a:latin typeface="Arial"/>
               <a:cs typeface="Arial"/>
             </a:rPr>
-            <a:t>Tel: (19) 3517-5071</a:t>
+            <a:t>Tel: (19) 3518-2571</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1499,10 +2135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R65"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1520,14 +2156,15 @@
     <col min="11" max="11" width="31.140625" customWidth="1"/>
     <col min="12" max="12" width="22.85546875" customWidth="1"/>
     <col min="13" max="13" width="38.5703125" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" customWidth="1"/>
     <col min="15" max="15" width="8.28515625" customWidth="1"/>
     <col min="16" max="16" width="8.42578125" customWidth="1"/>
     <col min="17" max="17" width="8.28515625" customWidth="1"/>
     <col min="18" max="18" width="8.42578125" customWidth="1"/>
+    <col min="19" max="19" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1549,66 +2186,67 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="2" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
+    <row r="2" spans="1:19" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
     </row>
-    <row r="3" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="14"/>
+      <c r="I4" s="15"/>
       <c r="J4" s="7" t="s">
         <v>6</v>
       </c>
@@ -1620,75 +2258,79 @@
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="20"/>
+      <c r="S4" s="12"/>
+    </row>
+    <row r="5" spans="1:19" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:19" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="20"/>
+      <c r="D6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:18" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
-      <c r="B7" s="3"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1698,17 +2340,18 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="N7" s="22"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
+      <c r="S7" s="22"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1718,1302 +2361,43 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="N8" s="23"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
+      <c r="S8" s="23"/>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A3:S3"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A3:R3"/>
     <mergeCell ref="Q4:R4"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:R7">
-    <cfRule type="expression" dxfId="51" priority="54">
+    <cfRule type="expression" dxfId="112" priority="115">
       <formula>ISNUMBER(FIND("Not",$A7))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:R8 A59:R59">
-    <cfRule type="expression" dxfId="50" priority="52">
+  <conditionalFormatting sqref="A8:R8">
+    <cfRule type="expression" dxfId="111" priority="113">
       <formula>ISNUMBER(FIND("Not",$A8))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51:R51">
-    <cfRule type="expression" dxfId="49" priority="50">
-      <formula>ISNUMBER(FIND("Not",$A51))</formula>
+  <conditionalFormatting sqref="S7">
+    <cfRule type="expression" dxfId="58" priority="59">
+      <formula>ISNUMBER(FIND("Not",$A7))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52:R52">
-    <cfRule type="expression" dxfId="48" priority="49">
-      <formula>ISNUMBER(FIND("Not",$A52))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:R53">
-    <cfRule type="expression" dxfId="47" priority="48">
-      <formula>ISNUMBER(FIND("Not",$A53))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:R54">
-    <cfRule type="expression" dxfId="46" priority="47">
-      <formula>ISNUMBER(FIND("Not",$A54))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:R55">
-    <cfRule type="expression" dxfId="45" priority="46">
-      <formula>ISNUMBER(FIND("Not",$A55))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:R56">
-    <cfRule type="expression" dxfId="44" priority="45">
-      <formula>ISNUMBER(FIND("Not",$A56))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57:R57">
-    <cfRule type="expression" dxfId="43" priority="44">
-      <formula>ISNUMBER(FIND("Not",$A57))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:R58">
-    <cfRule type="expression" dxfId="42" priority="43">
-      <formula>ISNUMBER(FIND("Not",$A58))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:R9">
-    <cfRule type="expression" dxfId="41" priority="42">
-      <formula>ISNUMBER(FIND("Not",$A9))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:R10">
-    <cfRule type="expression" dxfId="40" priority="41">
-      <formula>ISNUMBER(FIND("Not",$A10))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:R11">
-    <cfRule type="expression" dxfId="39" priority="40">
-      <formula>ISNUMBER(FIND("Not",$A11))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:R12">
-    <cfRule type="expression" dxfId="38" priority="39">
-      <formula>ISNUMBER(FIND("Not",$A12))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:R13">
-    <cfRule type="expression" dxfId="37" priority="38">
-      <formula>ISNUMBER(FIND("Not",$A13))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:R14">
-    <cfRule type="expression" dxfId="36" priority="37">
-      <formula>ISNUMBER(FIND("Not",$A14))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:R15">
-    <cfRule type="expression" dxfId="35" priority="36">
-      <formula>ISNUMBER(FIND("Not",$A15))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:R16">
-    <cfRule type="expression" dxfId="34" priority="35">
-      <formula>ISNUMBER(FIND("Not",$A16))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:R17">
-    <cfRule type="expression" dxfId="33" priority="34">
-      <formula>ISNUMBER(FIND("Not",$A17))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:R18">
-    <cfRule type="expression" dxfId="32" priority="33">
-      <formula>ISNUMBER(FIND("Not",$A18))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:R19">
-    <cfRule type="expression" dxfId="31" priority="32">
-      <formula>ISNUMBER(FIND("Not",$A19))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:R20">
-    <cfRule type="expression" dxfId="30" priority="31">
-      <formula>ISNUMBER(FIND("Not",$A20))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:R21">
-    <cfRule type="expression" dxfId="29" priority="30">
-      <formula>ISNUMBER(FIND("Not",$A21))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:R22">
-    <cfRule type="expression" dxfId="28" priority="29">
-      <formula>ISNUMBER(FIND("Not",$A22))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:R23">
-    <cfRule type="expression" dxfId="27" priority="28">
-      <formula>ISNUMBER(FIND("Not",$A23))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24:R24">
-    <cfRule type="expression" dxfId="26" priority="27">
-      <formula>ISNUMBER(FIND("Not",$A24))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:R25">
-    <cfRule type="expression" dxfId="25" priority="26">
-      <formula>ISNUMBER(FIND("Not",$A25))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:R26">
-    <cfRule type="expression" dxfId="24" priority="25">
-      <formula>ISNUMBER(FIND("Not",$A26))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:R27">
-    <cfRule type="expression" dxfId="23" priority="24">
-      <formula>ISNUMBER(FIND("Not",$A27))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:R28">
-    <cfRule type="expression" dxfId="22" priority="23">
-      <formula>ISNUMBER(FIND("Not",$A28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:R29">
-    <cfRule type="expression" dxfId="21" priority="22">
-      <formula>ISNUMBER(FIND("Not",$A29))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:R30">
-    <cfRule type="expression" dxfId="20" priority="21">
-      <formula>ISNUMBER(FIND("Not",$A30))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31:R31">
-    <cfRule type="expression" dxfId="19" priority="20">
-      <formula>ISNUMBER(FIND("Not",$A31))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32:R32">
-    <cfRule type="expression" dxfId="18" priority="19">
-      <formula>ISNUMBER(FIND("Not",$A32))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33:R33">
-    <cfRule type="expression" dxfId="17" priority="18">
-      <formula>ISNUMBER(FIND("Not",$A33))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:R34">
-    <cfRule type="expression" dxfId="16" priority="17">
-      <formula>ISNUMBER(FIND("Not",$A34))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:R35">
-    <cfRule type="expression" dxfId="15" priority="16">
-      <formula>ISNUMBER(FIND("Not",$A35))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:R36">
-    <cfRule type="expression" dxfId="14" priority="15">
-      <formula>ISNUMBER(FIND("Not",$A36))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:R37">
-    <cfRule type="expression" dxfId="13" priority="14">
-      <formula>ISNUMBER(FIND("Not",$A37))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38:R38">
-    <cfRule type="expression" dxfId="12" priority="13">
-      <formula>ISNUMBER(FIND("Not",$A38))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39:R39">
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>ISNUMBER(FIND("Not",$A39))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40:R40">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>ISNUMBER(FIND("Not",$A40))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:R41">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>ISNUMBER(FIND("Not",$A41))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:R42">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>ISNUMBER(FIND("Not",$A42))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43:R43">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>ISNUMBER(FIND("Not",$A43))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:R44">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>ISNUMBER(FIND("Not",$A44))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:R45">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>ISNUMBER(FIND("Not",$A45))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:R46">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>ISNUMBER(FIND("Not",$A46))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47:R47">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>ISNUMBER(FIND("Not",$A47))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48:R48">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>ISNUMBER(FIND("Not",$A48))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49:R49">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>ISNUMBER(FIND("Not",$A49))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:R50">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ISNUMBER(FIND("Not",$A50))</formula>
+  <conditionalFormatting sqref="S8">
+    <cfRule type="expression" dxfId="57" priority="58">
+      <formula>ISNUMBER(FIND("Not",$A8))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.49166666666666697" footer="0.49166666666666697"/>
